--- a/data_year/zb/对外经济贸易/货物进出口总额.xlsx
+++ b/data_year/zb/对外经济贸易/货物进出口总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,652 +478,402 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20634.44</v>
+        <v>107022.84</v>
       </c>
       <c r="C2" t="n">
-        <v>249203</v>
+        <v>1577754</v>
       </c>
       <c r="D2" t="n">
-        <v>1995.63</v>
+        <v>12323.34</v>
       </c>
       <c r="E2" t="n">
-        <v>24109</v>
+        <v>181507</v>
       </c>
       <c r="F2" t="n">
-        <v>39273.25</v>
+        <v>201722.34</v>
       </c>
       <c r="G2" t="n">
-        <v>474297</v>
+        <v>2974001</v>
       </c>
       <c r="H2" t="n">
-        <v>18638.81</v>
+        <v>94699.5</v>
       </c>
       <c r="I2" t="n">
-        <v>225094</v>
+        <v>1396247</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22024.44</v>
+        <v>123240.56</v>
       </c>
       <c r="C3" t="n">
-        <v>266098</v>
+        <v>1898381</v>
       </c>
       <c r="D3" t="n">
-        <v>1865.26</v>
+        <v>10079.16</v>
       </c>
       <c r="E3" t="n">
-        <v>22545</v>
+        <v>154897</v>
       </c>
       <c r="F3" t="n">
-        <v>42183.62</v>
+        <v>236401.95</v>
       </c>
       <c r="G3" t="n">
-        <v>509651</v>
+        <v>3641864</v>
       </c>
       <c r="H3" t="n">
-        <v>20159.18</v>
+        <v>113161.39</v>
       </c>
       <c r="I3" t="n">
-        <v>243553</v>
+        <v>1743484</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26947.87</v>
+        <v>129359.25</v>
       </c>
       <c r="C4" t="n">
-        <v>325596</v>
+        <v>2048714</v>
       </c>
       <c r="D4" t="n">
-        <v>2517.6</v>
+        <v>14558.29</v>
       </c>
       <c r="E4" t="n">
-        <v>30426</v>
+        <v>230309</v>
       </c>
       <c r="F4" t="n">
-        <v>51378.15</v>
+        <v>244160.21</v>
       </c>
       <c r="G4" t="n">
-        <v>620766</v>
+        <v>3867119</v>
       </c>
       <c r="H4" t="n">
-        <v>24430.27</v>
+        <v>114800.96</v>
       </c>
       <c r="I4" t="n">
-        <v>295170</v>
+        <v>1818405</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36287.89</v>
+        <v>137131.43</v>
       </c>
       <c r="C5" t="n">
-        <v>438228</v>
+        <v>2209004</v>
       </c>
       <c r="D5" t="n">
-        <v>2092.32</v>
+        <v>16093.98</v>
       </c>
       <c r="E5" t="n">
-        <v>25468</v>
+        <v>259015</v>
       </c>
       <c r="F5" t="n">
-        <v>70483.45</v>
+        <v>258168.89</v>
       </c>
       <c r="G5" t="n">
-        <v>850988</v>
+        <v>4158993</v>
       </c>
       <c r="H5" t="n">
-        <v>34195.56</v>
+        <v>121037.46</v>
       </c>
       <c r="I5" t="n">
-        <v>412760</v>
+        <v>1949989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49103.33</v>
+        <v>143883.75</v>
       </c>
       <c r="C6" t="n">
-        <v>593326</v>
+        <v>2342293</v>
       </c>
       <c r="D6" t="n">
-        <v>2667.57</v>
+        <v>23525.72</v>
       </c>
       <c r="E6" t="n">
-        <v>32097</v>
+        <v>383058</v>
       </c>
       <c r="F6" t="n">
-        <v>95539.09</v>
+        <v>264241.77</v>
       </c>
       <c r="G6" t="n">
-        <v>1154554</v>
+        <v>4301527</v>
       </c>
       <c r="H6" t="n">
-        <v>46435.76</v>
+        <v>120358.03</v>
       </c>
       <c r="I6" t="n">
-        <v>561229</v>
+        <v>1959235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62648.09</v>
+        <v>141166.83</v>
       </c>
       <c r="C7" t="n">
-        <v>761953</v>
+        <v>2273468</v>
       </c>
       <c r="D7" t="n">
-        <v>8374.41</v>
+        <v>36830.73</v>
       </c>
       <c r="E7" t="n">
-        <v>102001</v>
+        <v>593904</v>
       </c>
       <c r="F7" t="n">
-        <v>116921.77</v>
+        <v>245502.93</v>
       </c>
       <c r="G7" t="n">
-        <v>1421906</v>
+        <v>3953033</v>
       </c>
       <c r="H7" t="n">
-        <v>54273.68</v>
+        <v>104336.1</v>
       </c>
       <c r="I7" t="n">
-        <v>659953</v>
+        <v>1679564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77597.89</v>
+        <v>138419.29</v>
       </c>
       <c r="C8" t="n">
-        <v>968978</v>
+        <v>2097631</v>
       </c>
       <c r="D8" t="n">
-        <v>14221.03</v>
+        <v>33452.12</v>
       </c>
       <c r="E8" t="n">
-        <v>177517</v>
+        <v>509705</v>
       </c>
       <c r="F8" t="n">
-        <v>140974.74</v>
+        <v>243386.46</v>
       </c>
       <c r="G8" t="n">
-        <v>1760438</v>
+        <v>3685557</v>
       </c>
       <c r="H8" t="n">
-        <v>63376.86</v>
+        <v>104967.17</v>
       </c>
       <c r="I8" t="n">
-        <v>791461</v>
+        <v>1587926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93627.14</v>
+        <v>153309.4</v>
       </c>
       <c r="C9" t="n">
-        <v>1220060</v>
+        <v>2263340</v>
       </c>
       <c r="D9" t="n">
-        <v>20330.2</v>
+        <v>28519.6</v>
       </c>
       <c r="E9" t="n">
-        <v>263944</v>
+        <v>419550</v>
       </c>
       <c r="F9" t="n">
-        <v>166924.07</v>
+        <v>278099.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2176175</v>
+        <v>4107140</v>
       </c>
       <c r="H9" t="n">
-        <v>73296.92999999999</v>
+        <v>124789.8</v>
       </c>
       <c r="I9" t="n">
-        <v>956115</v>
+        <v>1843790</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100394.94</v>
+        <v>164128.8</v>
       </c>
       <c r="C10" t="n">
-        <v>1430693</v>
+        <v>2486700</v>
       </c>
       <c r="D10" t="n">
-        <v>20868.41</v>
+        <v>23247.5</v>
       </c>
       <c r="E10" t="n">
-        <v>298131</v>
+        <v>350950</v>
       </c>
       <c r="F10" t="n">
-        <v>179921.47</v>
+        <v>305010.1</v>
       </c>
       <c r="G10" t="n">
-        <v>2563255</v>
+        <v>4622440</v>
       </c>
       <c r="H10" t="n">
-        <v>79526.53</v>
+        <v>140881.3</v>
       </c>
       <c r="I10" t="n">
-        <v>1132562</v>
+        <v>2135750</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82029.69</v>
+        <v>172373.6</v>
       </c>
       <c r="C11" t="n">
-        <v>1201612</v>
+        <v>2499480</v>
       </c>
       <c r="D11" t="n">
-        <v>13411.32</v>
+        <v>29119.9</v>
       </c>
       <c r="E11" t="n">
-        <v>195689</v>
+        <v>421070</v>
       </c>
       <c r="F11" t="n">
-        <v>150648.06</v>
+        <v>315627.3</v>
       </c>
       <c r="G11" t="n">
-        <v>2207535</v>
+        <v>4577890</v>
       </c>
       <c r="H11" t="n">
-        <v>68618.37</v>
+        <v>143253.7</v>
       </c>
       <c r="I11" t="n">
-        <v>1005923</v>
+        <v>2078410</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>107022.84</v>
+        <v>179278.8</v>
       </c>
       <c r="C12" t="n">
-        <v>1577754</v>
+        <v>2589950</v>
       </c>
       <c r="D12" t="n">
-        <v>12323.34</v>
+        <v>36342.4</v>
       </c>
       <c r="E12" t="n">
-        <v>181507</v>
+        <v>523990</v>
       </c>
       <c r="F12" t="n">
-        <v>201722.34</v>
+        <v>322215.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2974001</v>
+        <v>4655910</v>
       </c>
       <c r="H12" t="n">
-        <v>94699.5</v>
+        <v>142936.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1396247</v>
+        <v>2065960</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>123240.56</v>
+        <v>217287.3812</v>
       </c>
       <c r="C13" t="n">
-        <v>1898381</v>
+        <v>3363023</v>
       </c>
       <c r="D13" t="n">
-        <v>10079.16</v>
+        <v>43653.1</v>
       </c>
       <c r="E13" t="n">
-        <v>154897</v>
+        <v>675880</v>
       </c>
       <c r="F13" t="n">
-        <v>236401.95</v>
+        <v>390921.6738</v>
       </c>
       <c r="G13" t="n">
-        <v>3641864</v>
+        <v>6050170</v>
       </c>
       <c r="H13" t="n">
-        <v>113161.39</v>
+        <v>173634.2926</v>
       </c>
       <c r="I13" t="n">
-        <v>1743484</v>
+        <v>2687143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>129359.25</v>
+        <v>239654.0031692</v>
       </c>
       <c r="C14" t="n">
-        <v>2048714</v>
+        <v>3593601.450275</v>
       </c>
       <c r="D14" t="n">
-        <v>14558.29</v>
-      </c>
-      <c r="E14" t="n">
-        <v>230309</v>
-      </c>
+        <v>58630</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>244160.21</v>
+        <v>420678.15904498</v>
       </c>
       <c r="G14" t="n">
-        <v>3867119</v>
+        <v>6309600.204299</v>
       </c>
       <c r="H14" t="n">
-        <v>114800.96</v>
+        <v>181024.15587578</v>
       </c>
       <c r="I14" t="n">
-        <v>1818405</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>137131.43</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2209004</v>
-      </c>
-      <c r="D15" t="n">
-        <v>16093.98</v>
-      </c>
-      <c r="E15" t="n">
-        <v>259015</v>
-      </c>
-      <c r="F15" t="n">
-        <v>258168.89</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4158993</v>
-      </c>
-      <c r="H15" t="n">
-        <v>121037.46</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1949989</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>143883.75</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2342293</v>
-      </c>
-      <c r="D16" t="n">
-        <v>23525.72</v>
-      </c>
-      <c r="E16" t="n">
-        <v>383058</v>
-      </c>
-      <c r="F16" t="n">
-        <v>264241.77</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4301527</v>
-      </c>
-      <c r="H16" t="n">
-        <v>120358.03</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1959235</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>141166.83</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2273468</v>
-      </c>
-      <c r="D17" t="n">
-        <v>36830.73</v>
-      </c>
-      <c r="E17" t="n">
-        <v>593904</v>
-      </c>
-      <c r="F17" t="n">
-        <v>245502.93</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3953033</v>
-      </c>
-      <c r="H17" t="n">
-        <v>104336.1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1679564</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>138419.2927</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2097631.193</v>
-      </c>
-      <c r="D18" t="n">
-        <v>33452.12</v>
-      </c>
-      <c r="E18" t="n">
-        <v>509705</v>
-      </c>
-      <c r="F18" t="n">
-        <v>243386.46</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3685557.412</v>
-      </c>
-      <c r="H18" t="n">
-        <v>104967.1697</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1587926.219</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>153309.43</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2263345</v>
-      </c>
-      <c r="D19" t="n">
-        <v>28519.62</v>
-      </c>
-      <c r="E19" t="n">
-        <v>419552</v>
-      </c>
-      <c r="F19" t="n">
-        <v>278099.24</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4107138</v>
-      </c>
-      <c r="H19" t="n">
-        <v>124789.81</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1843793</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>164127.81</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2486682</v>
-      </c>
-      <c r="D20" t="n">
-        <v>23247.49</v>
-      </c>
-      <c r="E20" t="n">
-        <v>350948</v>
-      </c>
-      <c r="F20" t="n">
-        <v>305008.13</v>
-      </c>
-      <c r="G20" t="n">
-        <v>4622415</v>
-      </c>
-      <c r="H20" t="n">
-        <v>140880.32</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2135734</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>172373.63120094</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2499482.089188</v>
-      </c>
-      <c r="D21" t="n">
-        <v>29119.9449483</v>
-      </c>
-      <c r="E21" t="n">
-        <v>421073.105992</v>
-      </c>
-      <c r="F21" t="n">
-        <v>315627.31745358</v>
-      </c>
-      <c r="G21" t="n">
-        <v>4577891.072384</v>
-      </c>
-      <c r="H21" t="n">
-        <v>143253.68625264</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2078408.983196</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>179278.83446825</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2589951.607295</v>
-      </c>
-      <c r="D22" t="n">
-        <v>36342.4322854</v>
-      </c>
-      <c r="E22" t="n">
-        <v>523990.053522</v>
-      </c>
-      <c r="F22" t="n">
-        <v>322215.2366511</v>
-      </c>
-      <c r="G22" t="n">
-        <v>4655913.161068</v>
-      </c>
-      <c r="H22" t="n">
-        <v>142936.40218285</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2065961.553773</v>
+        <v>2715998.754024</v>
       </c>
     </row>
   </sheetData>
